--- a/Decision_Tree_r_score_list.xlsx
+++ b/Decision_Tree_r_score_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOPE\Machine-Learning\Regression\Decision_Tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOPE\Machine-Learning\Regression\4.Decision_Tree_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4761885-C294-4CCA-9666-5D56F3046495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830D3AF8-A9A7-408F-8E57-5EBD907CE45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{365EBB27-AF96-44F8-A25B-38C22203F26A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="16">
   <si>
     <t>S NO</t>
   </si>
@@ -58,42 +58,34 @@
   </si>
   <si>
     <t xml:space="preserve">R2 score value for Decision Tree </t>
+  </si>
+  <si>
+    <t>max_features</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>sqrt</t>
+  </si>
+  <si>
+    <t>log2</t>
+  </si>
+  <si>
+    <t>Best R2 score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF222832"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF222832"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <i/>
@@ -103,35 +95,46 @@
       <family val="3"/>
     </font>
     <font>
+      <b/>
       <i/>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF222832"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <i/>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color rgb="FF222832"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
       <i/>
-      <sz val="10"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="14"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -145,7 +148,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -162,27 +165,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,151 +504,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD88EAD5-A64C-4718-BF0A-5344630EDEA6}">
-  <dimension ref="C8:F18"/>
+  <dimension ref="C8:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="15.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.85546875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="D8" s="11" t="s">
+    <row r="8" spans="3:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="7">
-        <v>0.92779999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="8">
+      <c r="E11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0.87090000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="8">
+      <c r="E12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="6">
         <v>3</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="6">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="6">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="6">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="6">
         <v>7</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0.93079999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="D17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0.86539999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="8">
-        <v>5</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="6">
         <v>8</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="10">
-        <v>0.95530000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="8">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="6">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="6">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="6">
+        <v>11</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="6">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C23" s="10">
+        <v>13</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.93910000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="8">
-        <v>7</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="6">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="6">
+        <v>15</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="6">
+        <v>16</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="6">
+        <v>17</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="6">
+        <v>18</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="6">
+        <v>19</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.91839999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="8">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="E29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="6">
+        <v>20</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.90080000000000005</v>
+      <c r="E30" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C31" s="6">
+        <v>21</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C32" s="6">
+        <v>22</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C33" s="6">
+        <v>23</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C34" s="6">
+        <v>24</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
